--- a/docs/_static/INSaFLU_current_genetic_markers_v11_after_07_03_2023.xlsx
+++ b/docs/_static/INSaFLU_current_genetic_markers_v11_after_07_03_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
     <sheet name="typing" sheetId="1" r:id="rId1"/>
@@ -3542,130 +3542,9 @@
     </r>
   </si>
   <si>
-    <t>** NOTE: To reduce the risk of misclassifying closely related non-SARS-CoV-2 coronavirus as "SARS-CoV-2", genetic markers of the Bat coronavirus RaTG13 (NCBI accession: MN996532.2) were also included in the markers database. If the closest match of your reads (ONT data) or derived assemblies (Illumina / Ion Torrent) is the RaTG13, sample will be classified as "bat_RaTG13"</t>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“BetaCoV”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if the draft assemblies (Illumina/Ion Torrent data) or post-QC reads (ONT data) contain an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">“M gene” </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">with ≥70% Identity and ≥60% coverage to one of the M (partial) gene marker sequences of the five representative Human BetaCoronavirus genomes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(see "typing" tab  for details).</t>
-    </r>
-  </si>
-  <si>
     <t>NOTE: To reduce the risk of misclassifying closely related non-SARS-CoV-2 coronavirus as "SARS-CoV-2", genetic markers of the Bat coronavirus RaTG13 (NCBI accession: MN996532.2) were also included in the markers databases.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Just after read’s upload, a draft assembly is generated for Illumina/IonTorrent data and provided for download. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reads (for ONT data) or Contigs (for Illumina/IonTorrent data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) are labeled with</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the closest match among the five human BetaCoV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (see above) if they have ≥70% Identity and ≥30% coverage to one of the five S/M partial gene sequences (for ONT reads) or full-genome sequences (for draft assemblies) listed in the tab "assign_ref_segments2contigs". An output table listing the contigs with hits is also provided (in Menu “Samples” / Extra info”).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"># Rapid assignment of reads/draft assemblies: </t>
-  </si>
-  <si>
     <t>M (partial)</t>
   </si>
   <si>
@@ -3688,73 +3567,6 @@
   </si>
   <si>
     <t>EPI_ISL_6892639 (22484-22738)</t>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“SARS_CoV_2”, “MERS_CoV”, “SARS_CoV”, “HCoV_HKU1” or “HCoV_OC43” if the draft assemblies (Illumina/Ion Torrent data) or post-QC reads (ONT data)  contains a “S gene”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with ≥70% Identity and ≥60% coverage to one of the S (partial) gene marker sequences of the five representative Human BetaCoronavirus (the classification reflects </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the closest match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> among the five human BetaCoV listed above). For SARS-CoV-2, it is provided a "SCoV2_potential_Omicron" classification for Omicron-like sequences. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(see "typing" tab  for details).**</t>
-    </r>
   </si>
   <si>
     <t>MPXV</t>
@@ -4118,6 +3930,194 @@
   </si>
   <si>
     <t>hRSV_B_Australia_VIC_RCH056_2019</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“BetaCoV”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if the draft assemblies (Illumina/Ion Torrent data or ONT data) contain an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">“M gene” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">with ≥70% Identity and ≥40% (until 15/06/2023: 60%) coverage to one of the M (partial) gene marker sequences of the five representative Human BetaCoronavirus genomes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(see "typing" tab  for details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just after read’s upload, a draft assembly is generated for Illumina/IonTorrent data and provided for download. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Contigs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are labeled with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the closest match among the five human BetaCoV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (see above) if they have ≥70% Identity and ≥30% coverage to one of the five S/M partial gene sequences or full-genome sequences listed in the tab "assign_ref_segments2contigs". An output table listing the contigs with hits is also provided (in Menu “Samples” / Extra info”).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># Rapid assignment of draft assemblies: </t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“SARS_CoV_2”, “MERS_CoV”, “SARS_CoV”, “HCoV_HKU1” or “HCoV_OC43” if the draft assemblies (Illumina/Ion Torrent data or ONT data)  contains a “S gene”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with ≥70% Identity and ≥40% (until 15/06/2023: 60%) coverage to one of the S (partial) gene marker sequences of the five representative Human BetaCoronavirus (the classification reflects </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the closest match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> among the five human BetaCoV listed above). For SARS-CoV-2, it is provided a "SCoV2_potential_Omicron" classification for Omicron-like sequences. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(see "typing" tab  for details).**</t>
+    </r>
+  </si>
+  <si>
+    <t>** NOTE: To reduce the risk of misclassifying closely related non-SARS-CoV-2 coronavirus as "SARS-CoV-2", genetic markers of the Bat coronavirus RaTG13 (NCBI accession: MN996532.2) were also included in the markers database. If the closest match of derived assemblies is the RaTG13, sample will be classified as "bat_RaTG13"</t>
   </si>
 </sst>
 </file>
@@ -4784,15 +4784,15 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -6926,22 +6926,22 @@
     <row r="42" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="52"/>
       <c r="B42" s="53" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>914</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G42" s="64" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="H42" s="64"/>
       <c r="I42" s="64"/>
@@ -7314,22 +7314,22 @@
     </row>
     <row r="51" spans="1:15" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="86" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B51" s="86" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C51" s="86" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D51" s="86" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E51" s="86" t="s">
         <v>80</v>
       </c>
       <c r="F51" s="86" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G51" s="94"/>
       <c r="H51" s="87"/>
@@ -7343,24 +7343,24 @@
     </row>
     <row r="52" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="92" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C52" s="92"/>
       <c r="D52" s="92" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E52" s="92" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F52" s="88"/>
       <c r="G52" s="95" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H52" s="95" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="I52" s="89"/>
       <c r="J52" s="89"/>
@@ -7373,19 +7373,19 @@
     <row r="53" spans="1:15" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="93"/>
       <c r="B53" s="93" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C53" s="93"/>
       <c r="D53" s="93" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="E53" s="90"/>
       <c r="F53" s="90"/>
       <c r="G53" s="96" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H53" s="96" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="I53" s="91"/>
       <c r="J53" s="91"/>
@@ -7435,9 +7435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q604"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A607" sqref="A607"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A559" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G588" sqref="G588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -33043,7 +33043,7 @@
         <v>890</v>
       </c>
       <c r="D552" s="80" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E552" s="80" t="s">
         <v>80</v>
@@ -33090,7 +33090,7 @@
         <v>890</v>
       </c>
       <c r="D553" s="80" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E553" s="80" t="s">
         <v>80</v>
@@ -33184,7 +33184,7 @@
         <v>892</v>
       </c>
       <c r="D555" s="53" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E555" s="53" t="s">
         <v>80</v>
@@ -33231,7 +33231,7 @@
         <v>892</v>
       </c>
       <c r="D556" s="53" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E556" s="53" t="s">
         <v>80</v>
@@ -33325,7 +33325,7 @@
         <v>888</v>
       </c>
       <c r="D558" s="80" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E558" s="80" t="s">
         <v>80</v>
@@ -33372,7 +33372,7 @@
         <v>888</v>
       </c>
       <c r="D559" s="80" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E559" s="80" t="s">
         <v>80</v>
@@ -33466,7 +33466,7 @@
         <v>893</v>
       </c>
       <c r="D561" s="53" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E561" s="53" t="s">
         <v>80</v>
@@ -33513,7 +33513,7 @@
         <v>893</v>
       </c>
       <c r="D562" s="53" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E562" s="53" t="s">
         <v>80</v>
@@ -33607,7 +33607,7 @@
         <v>896</v>
       </c>
       <c r="D564" s="79" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E564" s="79" t="s">
         <v>80</v>
@@ -33654,7 +33654,7 @@
         <v>896</v>
       </c>
       <c r="D565" s="79" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E565" s="79" t="s">
         <v>80</v>
@@ -33692,13 +33692,13 @@
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566" s="88" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B566" s="88" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C566" s="88" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D566" s="88" t="s">
         <v>887</v>
@@ -33707,7 +33707,7 @@
         <v>80</v>
       </c>
       <c r="F566" s="88" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="G566" s="35" t="s">
         <v>413</v>
@@ -33739,22 +33739,22 @@
     </row>
     <row r="567" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="90" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B567" s="90" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C567" s="90" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D567" s="90" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E567" s="90" t="s">
         <v>80</v>
       </c>
       <c r="F567" s="90" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G567" s="35" t="s">
         <v>413</v>
@@ -33785,26 +33785,26 @@
       </c>
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A568" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B568" s="99" t="s">
-        <v>965</v>
-      </c>
-      <c r="C568" s="100" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D568" s="99" t="s">
-        <v>986</v>
-      </c>
-      <c r="E568" s="99" t="s">
-        <v>940</v>
-      </c>
-      <c r="F568" s="99" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G568" s="103" t="s">
-        <v>956</v>
+      <c r="A568" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B568" s="98" t="s">
+        <v>960</v>
+      </c>
+      <c r="C568" s="99" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D568" s="98" t="s">
+        <v>981</v>
+      </c>
+      <c r="E568" s="98" t="s">
+        <v>936</v>
+      </c>
+      <c r="F568" s="98" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G568" s="102" t="s">
+        <v>951</v>
       </c>
       <c r="I568" s="35"/>
       <c r="J568" s="43"/>
@@ -33821,919 +33821,919 @@
       </c>
     </row>
     <row r="569" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A569" s="98" t="s">
+      <c r="A569" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B569" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C569" s="99" t="s">
+        <v>962</v>
+      </c>
+      <c r="D569" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E569" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F569" s="99" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G569" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H569" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I569" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J569" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K569" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L569" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M569" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N569" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O569" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A570" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B570" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C570" s="99" t="s">
+        <v>963</v>
+      </c>
+      <c r="D570" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E570" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F570" s="99" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G570" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H570" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I570" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J570" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K570" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L570" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M570" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N570" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O570" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A571" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B571" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C571" s="99" t="s">
         <v>964</v>
       </c>
-      <c r="B569" s="100" t="s">
+      <c r="D571" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E571" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F571" s="99" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G571" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H571" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I571" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J571" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K571" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L571" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M571" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N571" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O571" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A572" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B572" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C572" s="99" t="s">
         <v>965</v>
       </c>
-      <c r="C569" s="100" t="s">
+      <c r="D572" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E572" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F572" s="99" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G572" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H572" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I572" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J572" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K572" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L572" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M572" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N572" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O572" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A573" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B573" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C573" s="99" t="s">
+        <v>966</v>
+      </c>
+      <c r="D573" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E573" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F573" s="99" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G573" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H573" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I573" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J573" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K573" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L573" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M573" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N573" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O573" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A574" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B574" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C574" s="99" t="s">
         <v>967</v>
       </c>
-      <c r="D569" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E569" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F569" s="100" t="s">
+      <c r="D574" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E574" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F574" s="99" t="s">
         <v>1015</v>
       </c>
-      <c r="G569" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H569" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I569" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J569" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K569" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L569" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M569" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N569" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O569" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A570" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B570" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C570" s="100" t="s">
+      <c r="G574" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H574" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I574" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J574" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K574" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L574" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M574" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N574" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O574" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A575" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B575" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C575" s="99" t="s">
         <v>968</v>
       </c>
-      <c r="D570" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E570" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F570" s="100" t="s">
+      <c r="D575" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E575" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F575" s="99" t="s">
         <v>1016</v>
       </c>
-      <c r="G570" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H570" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I570" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J570" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K570" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L570" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M570" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N570" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O570" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A571" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B571" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C571" s="100" t="s">
+      <c r="G575" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H575" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I575" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J575" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K575" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L575" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M575" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N575" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O575" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A576" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B576" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C576" s="99" t="s">
         <v>969</v>
       </c>
-      <c r="D571" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E571" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F571" s="100" t="s">
+      <c r="D576" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E576" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F576" s="99" t="s">
         <v>1017</v>
       </c>
-      <c r="G571" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H571" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I571" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J571" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K571" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L571" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M571" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N571" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O571" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A572" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B572" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C572" s="100" t="s">
+      <c r="G576" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H576" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I576" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J576" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K576" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L576" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M576" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N576" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O576" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A577" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B577" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C577" s="99" t="s">
         <v>970</v>
       </c>
-      <c r="D572" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E572" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F572" s="100" t="s">
+      <c r="D577" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E577" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F577" s="99" t="s">
         <v>1018</v>
       </c>
-      <c r="G572" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H572" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I572" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J572" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K572" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L572" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M572" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N572" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O572" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A573" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B573" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C573" s="100" t="s">
+      <c r="G577" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H577" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I577" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J577" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K577" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L577" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M577" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N577" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O577" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A578" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B578" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C578" s="99" t="s">
         <v>971</v>
       </c>
-      <c r="D573" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E573" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F573" s="100" t="s">
+      <c r="D578" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E578" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F578" s="99" t="s">
         <v>1019</v>
       </c>
-      <c r="G573" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H573" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I573" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J573" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K573" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L573" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M573" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N573" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O573" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A574" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B574" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C574" s="100" t="s">
+      <c r="G578" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H578" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I578" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J578" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K578" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L578" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M578" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N578" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O578" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A579" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B579" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C579" s="99" t="s">
         <v>972</v>
       </c>
-      <c r="D574" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E574" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F574" s="100" t="s">
+      <c r="D579" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E579" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F579" s="99" t="s">
         <v>1020</v>
       </c>
-      <c r="G574" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H574" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I574" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J574" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K574" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L574" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M574" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N574" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O574" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A575" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B575" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C575" s="100" t="s">
+      <c r="G579" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H579" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I579" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J579" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K579" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L579" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M579" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N579" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O579" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A580" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B580" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C580" s="99" t="s">
         <v>973</v>
       </c>
-      <c r="D575" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E575" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F575" s="100" t="s">
+      <c r="D580" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E580" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F580" s="99" t="s">
         <v>1021</v>
       </c>
-      <c r="G575" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H575" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I575" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J575" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K575" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L575" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M575" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N575" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O575" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A576" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B576" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C576" s="100" t="s">
+      <c r="G580" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H580" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I580" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J580" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K580" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L580" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M580" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N580" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O580" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A581" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B581" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C581" s="99" t="s">
         <v>974</v>
       </c>
-      <c r="D576" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E576" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F576" s="100" t="s">
+      <c r="D581" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E581" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F581" s="99" t="s">
         <v>1022</v>
       </c>
-      <c r="G576" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H576" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I576" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J576" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K576" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L576" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M576" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N576" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O576" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A577" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B577" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C577" s="100" t="s">
+      <c r="G581" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H581" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I581" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J581" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K581" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L581" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M581" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N581" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O581" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A582" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B582" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C582" s="99" t="s">
         <v>975</v>
       </c>
-      <c r="D577" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E577" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F577" s="100" t="s">
+      <c r="D582" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E582" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F582" s="99" t="s">
         <v>1023</v>
       </c>
-      <c r="G577" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H577" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I577" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J577" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K577" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L577" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M577" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N577" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O577" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A578" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B578" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C578" s="100" t="s">
+      <c r="G582" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H582" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I582" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J582" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K582" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L582" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M582" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N582" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O582" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A583" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B583" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C583" s="99" t="s">
         <v>976</v>
       </c>
-      <c r="D578" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E578" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F578" s="100" t="s">
+      <c r="D583" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E583" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F583" s="99" t="s">
         <v>1024</v>
       </c>
-      <c r="G578" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H578" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I578" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J578" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K578" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L578" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M578" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N578" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O578" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A579" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B579" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C579" s="100" t="s">
+      <c r="G583" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H583" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I583" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J583" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K583" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L583" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M583" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N583" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O583" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A584" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B584" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C584" s="99" t="s">
         <v>977</v>
       </c>
-      <c r="D579" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E579" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F579" s="100" t="s">
+      <c r="D584" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E584" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F584" s="99" t="s">
         <v>1025</v>
       </c>
-      <c r="G579" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H579" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I579" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J579" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K579" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L579" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M579" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N579" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O579" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A580" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B580" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C580" s="100" t="s">
+      <c r="G584" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H584" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I584" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J584" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K584" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L584" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M584" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N584" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O584" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A585" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B585" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C585" s="99" t="s">
         <v>978</v>
       </c>
-      <c r="D580" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E580" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F580" s="100" t="s">
+      <c r="D585" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E585" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F585" s="99" t="s">
         <v>1026</v>
       </c>
-      <c r="G580" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H580" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I580" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J580" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K580" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L580" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M580" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N580" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O580" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A581" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B581" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C581" s="100" t="s">
+      <c r="G585" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H585" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I585" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J585" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K585" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L585" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M585" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N585" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O585" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A586" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B586" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C586" s="99" t="s">
         <v>979</v>
       </c>
-      <c r="D581" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E581" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F581" s="100" t="s">
+      <c r="D586" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E586" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F586" s="99" t="s">
         <v>1027</v>
       </c>
-      <c r="G581" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H581" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I581" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J581" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K581" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L581" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M581" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N581" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O581" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A582" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B582" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C582" s="100" t="s">
+      <c r="G586" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H586" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I586" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J586" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K586" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L586" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M586" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N586" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O586" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A587" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B587" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C587" s="99" t="s">
         <v>980</v>
       </c>
-      <c r="D582" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E582" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F582" s="100" t="s">
+      <c r="D587" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E587" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F587" s="99" t="s">
         <v>1028</v>
       </c>
-      <c r="G582" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H582" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I582" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J582" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K582" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L582" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M582" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N582" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O582" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A583" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B583" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C583" s="100" t="s">
+      <c r="G587" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H587" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I587" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J587" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K587" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L587" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M587" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N587" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O587" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A588" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B588" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C588" s="99" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D588" s="99" t="s">
         <v>981</v>
       </c>
-      <c r="D583" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E583" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F583" s="100" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G583" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H583" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I583" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J583" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K583" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L583" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M583" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N583" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O583" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A584" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B584" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C584" s="100" t="s">
-        <v>982</v>
-      </c>
-      <c r="D584" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E584" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F584" s="100" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G584" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H584" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I584" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J584" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K584" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L584" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M584" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N584" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O584" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A585" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B585" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C585" s="100" t="s">
-        <v>983</v>
-      </c>
-      <c r="D585" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E585" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F585" s="100" t="s">
+      <c r="E588" s="98" t="s">
+        <v>936</v>
+      </c>
+      <c r="F588" s="99" t="s">
         <v>1031</v>
       </c>
-      <c r="G585" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H585" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I585" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J585" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K585" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L585" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M585" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N585" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O585" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A586" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B586" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C586" s="100" t="s">
-        <v>984</v>
-      </c>
-      <c r="D586" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E586" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F586" s="100" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G586" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H586" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I586" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J586" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K586" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L586" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M586" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N586" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O586" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A587" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B587" s="100" t="s">
-        <v>965</v>
-      </c>
-      <c r="C587" s="100" t="s">
-        <v>985</v>
-      </c>
-      <c r="D587" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E587" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F587" s="100" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G587" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H587" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I587" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J587" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K587" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L587" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M587" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N587" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O587" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A588" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B588" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C588" s="100" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D588" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E588" s="99" t="s">
-        <v>940</v>
-      </c>
-      <c r="F588" s="100" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G588" s="103" t="s">
-        <v>957</v>
+      <c r="G588" s="102" t="s">
+        <v>952</v>
       </c>
       <c r="H588" s="35"/>
       <c r="I588" s="35"/>
@@ -34749,634 +34749,634 @@
       </c>
     </row>
     <row r="589" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A589" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B589" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C589" s="100" t="s">
+      <c r="A589" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B589" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C589" s="99" t="s">
+        <v>982</v>
+      </c>
+      <c r="D589" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E589" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F589" s="99" t="s">
+        <v>996</v>
+      </c>
+      <c r="G589" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H589" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I589" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J589" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K589" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L589" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M589" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N589" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O589" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A590" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B590" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C590" s="99" t="s">
+        <v>983</v>
+      </c>
+      <c r="D590" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E590" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F590" s="99" t="s">
+        <v>997</v>
+      </c>
+      <c r="G590" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H590" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I590" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J590" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K590" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L590" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M590" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N590" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O590" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A591" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B591" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C591" s="99" t="s">
+        <v>984</v>
+      </c>
+      <c r="D591" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E591" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F591" s="99" t="s">
+        <v>998</v>
+      </c>
+      <c r="G591" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H591" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I591" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J591" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K591" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L591" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M591" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N591" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O591" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A592" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B592" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C592" s="99" t="s">
+        <v>985</v>
+      </c>
+      <c r="D592" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E592" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F592" s="99" t="s">
+        <v>999</v>
+      </c>
+      <c r="G592" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H592" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I592" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J592" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K592" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L592" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M592" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N592" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O592" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A593" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B593" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C593" s="99" t="s">
+        <v>986</v>
+      </c>
+      <c r="D593" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E593" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F593" s="99" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G593" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H593" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I593" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J593" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K593" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L593" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M593" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N593" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O593" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A594" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B594" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C594" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="D589" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E589" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F589" s="100" t="s">
+      <c r="D594" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E594" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F594" s="99" t="s">
         <v>1001</v>
       </c>
-      <c r="G589" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H589" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I589" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J589" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K589" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L589" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M589" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N589" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O589" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A590" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B590" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C590" s="100" t="s">
+      <c r="G594" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H594" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I594" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J594" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K594" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L594" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M594" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N594" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O594" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A595" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B595" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C595" s="99" t="s">
         <v>988</v>
       </c>
-      <c r="D590" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E590" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F590" s="100" t="s">
+      <c r="D595" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E595" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F595" s="99" t="s">
         <v>1002</v>
       </c>
-      <c r="G590" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H590" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I590" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J590" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K590" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L590" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M590" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N590" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O590" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A591" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B591" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C591" s="100" t="s">
+      <c r="G595" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H595" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I595" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J595" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K595" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L595" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M595" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N595" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O595" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A596" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B596" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C596" s="99" t="s">
         <v>989</v>
       </c>
-      <c r="D591" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E591" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F591" s="100" t="s">
+      <c r="D596" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E596" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F596" s="99" t="s">
         <v>1003</v>
       </c>
-      <c r="G591" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H591" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I591" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J591" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K591" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L591" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M591" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N591" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O591" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A592" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B592" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C592" s="100" t="s">
+      <c r="G596" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H596" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I596" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J596" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K596" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L596" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M596" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N596" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O596" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A597" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B597" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C597" s="99" t="s">
         <v>990</v>
       </c>
-      <c r="D592" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E592" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F592" s="100" t="s">
+      <c r="D597" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E597" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F597" s="99" t="s">
         <v>1004</v>
       </c>
-      <c r="G592" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H592" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I592" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J592" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K592" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L592" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M592" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N592" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O592" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A593" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B593" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C593" s="100" t="s">
+      <c r="G597" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H597" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I597" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J597" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K597" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L597" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M597" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N597" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O597" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A598" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B598" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C598" s="99" t="s">
         <v>991</v>
       </c>
-      <c r="D593" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E593" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F593" s="100" t="s">
+      <c r="D598" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E598" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F598" s="99" t="s">
         <v>1005</v>
       </c>
-      <c r="G593" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H593" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I593" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J593" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K593" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L593" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M593" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N593" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O593" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A594" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B594" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C594" s="100" t="s">
+      <c r="G598" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H598" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I598" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J598" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K598" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L598" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M598" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N598" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O598" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A599" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B599" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C599" s="99" t="s">
         <v>992</v>
       </c>
-      <c r="D594" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E594" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F594" s="100" t="s">
+      <c r="D599" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E599" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F599" s="99" t="s">
         <v>1006</v>
       </c>
-      <c r="G594" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H594" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I594" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J594" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K594" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L594" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M594" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N594" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O594" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A595" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B595" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C595" s="100" t="s">
+      <c r="G599" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H599" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I599" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J599" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K599" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L599" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M599" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N599" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O599" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A600" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B600" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C600" s="99" t="s">
         <v>993</v>
       </c>
-      <c r="D595" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E595" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F595" s="100" t="s">
+      <c r="D600" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E600" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F600" s="99" t="s">
         <v>1007</v>
       </c>
-      <c r="G595" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H595" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I595" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J595" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K595" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L595" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M595" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N595" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O595" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A596" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B596" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C596" s="100" t="s">
+      <c r="G600" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H600" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I600" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J600" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K600" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L600" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M600" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N600" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O600" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A601" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B601" s="100" t="s">
+        <v>961</v>
+      </c>
+      <c r="C601" s="99" t="s">
         <v>994</v>
       </c>
-      <c r="D596" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E596" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F596" s="100" t="s">
+      <c r="D601" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E601" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F601" s="99" t="s">
         <v>1008</v>
       </c>
-      <c r="G596" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H596" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I596" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J596" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K596" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L596" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M596" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N596" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O596" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A597" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B597" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C597" s="100" t="s">
+      <c r="G601" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H601" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I601" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J601" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K601" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="L601" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="M601" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="N601" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O601" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="602" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="97" t="s">
+        <v>959</v>
+      </c>
+      <c r="B602" s="101" t="s">
+        <v>961</v>
+      </c>
+      <c r="C602" s="99" t="s">
         <v>995</v>
       </c>
-      <c r="D597" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E597" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F597" s="100" t="s">
+      <c r="D602" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="E602" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F602" s="99" t="s">
         <v>1009</v>
-      </c>
-      <c r="G597" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H597" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I597" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J597" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K597" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L597" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M597" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N597" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O597" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A598" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B598" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C598" s="100" t="s">
-        <v>996</v>
-      </c>
-      <c r="D598" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E598" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F598" s="100" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G598" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H598" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I598" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J598" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K598" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L598" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M598" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N598" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O598" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A599" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B599" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C599" s="100" t="s">
-        <v>997</v>
-      </c>
-      <c r="D599" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E599" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F599" s="100" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G599" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H599" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I599" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J599" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K599" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L599" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M599" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N599" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O599" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A600" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B600" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C600" s="100" t="s">
-        <v>998</v>
-      </c>
-      <c r="D600" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E600" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F600" s="100" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G600" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H600" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I600" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J600" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K600" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L600" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M600" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N600" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O600" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A601" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B601" s="101" t="s">
-        <v>966</v>
-      </c>
-      <c r="C601" s="100" t="s">
-        <v>999</v>
-      </c>
-      <c r="D601" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E601" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F601" s="100" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G601" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="H601" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I601" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="J601" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="K601" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="L601" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="M601" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="N601" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="O601" s="42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="602" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A602" s="98" t="s">
-        <v>964</v>
-      </c>
-      <c r="B602" s="102" t="s">
-        <v>966</v>
-      </c>
-      <c r="C602" s="100" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D602" s="100" t="s">
-        <v>986</v>
-      </c>
-      <c r="E602" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="F602" s="100" t="s">
-        <v>1014</v>
       </c>
       <c r="G602" s="35" t="s">
         <v>413</v>
@@ -35490,7 +35490,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35556,7 +35556,7 @@
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -35594,14 +35594,14 @@
     </row>
     <row r="15" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>931</v>
+        <v>1033</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
-        <v>943</v>
+        <v>1036</v>
       </c>
       <c r="B16" s="63"/>
     </row>
@@ -35629,7 +35629,7 @@
     </row>
     <row r="21" spans="1:3" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B21" s="63"/>
     </row>
@@ -35666,7 +35666,7 @@
     </row>
     <row r="27" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
-        <v>930</v>
+        <v>1037</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -35690,14 +35690,14 @@
     </row>
     <row r="31" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="72" t="s">
-        <v>934</v>
+        <v>1035</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
-        <v>933</v>
+        <v>1034</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
@@ -35755,118 +35755,118 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="103" t="s">
         <v>873</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
